--- a/biology/Médecine/Maladie_de_Machado-Joseph/Maladie_de_Machado-Joseph.xlsx
+++ b/biology/Médecine/Maladie_de_Machado-Joseph/Maladie_de_Machado-Joseph.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie de Machado-Joseph est une maladie génétique, autosomique dominante, qui provoque une dégénérescence nerveuse limitée.
 </t>
@@ -511,7 +523,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette ataxie spinocérébelleuse associe des troubles de la coordination des mouvements progressive avec une paralysie oculaire. Les fonctions intellectuelles sont rarement touchées. Cette maladie apparaît à l'âge adulte.
 </t>
@@ -542,7 +556,9 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Particulièrement rare dans le monde, on la retrouve surtout dans la population adulte des Açores.
 </t>
@@ -573,7 +589,9 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette maladie provoque le décès à long terme (en moyenne, une vingtaine d'années).
  Portail de la médecine   Portail des Açores                    </t>
